--- a/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110.xlsx
+++ b/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110.xlsx
@@ -3,13 +3,8 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="Y:\Module\17 - Projekt-Modul\API\Dokumentation\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15336" windowHeight="9924"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="10995"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -17,7 +12,8 @@
     <sheet name="Sprintbacklog 2" sheetId="3" r:id="rId3"/>
     <sheet name="Sprintbacklog 3" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="162913"/>
+  <oleSize ref="A1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
   <si>
     <t>Priorisierung</t>
   </si>
@@ -59,9 +55,6 @@
     <t>Story Points</t>
   </si>
   <si>
-    <t>Als User möchte ich …..</t>
-  </si>
-  <si>
     <t>InProgress</t>
   </si>
   <si>
@@ -135,12 +128,36 @@
   </si>
   <si>
     <t>Kann</t>
+  </si>
+  <si>
+    <t>Als User möchte ich mich anmelden können.</t>
+  </si>
+  <si>
+    <t>Als User möchte ich mindestens 5 Restaurants pro Küche haben.</t>
+  </si>
+  <si>
+    <t>Als User möchte ich Informationen über ein Restarant bekommen.</t>
+  </si>
+  <si>
+    <t>Als User möchte ich die Informationen über eine Datenbank bekommen.</t>
+  </si>
+  <si>
+    <t>US 5</t>
+  </si>
+  <si>
+    <t>Als User kann man eine Bewertung und ein Kommentar abgeben.</t>
+  </si>
+  <si>
+    <t>US 6</t>
+  </si>
+  <si>
+    <t>Als User kann man einen neuen Account erstellen.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="dd/mm/yyyy;@"/>
   </numFmts>
@@ -317,7 +334,7 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
@@ -444,6 +461,11 @@
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-2E0C-4A59-9F17-15A32FF76064}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -487,21 +509,26 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>6.5</c:v>
+                  <c:v>5</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8.5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
           <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2E0C-4A59-9F17-15A32FF76064}"/>
+            </c:ext>
+          </c:extLst>
         </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
@@ -1275,7 +1302,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1540,23 +1567,23 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="15.88671875" style="1" customWidth="1"/>
-    <col min="4" max="4" width="15.21875" style="1" customWidth="1"/>
-    <col min="5" max="5" width="86.5546875" customWidth="1"/>
-    <col min="6" max="6" width="13.33203125" customWidth="1"/>
+    <col min="3" max="3" width="15.85546875" style="1" customWidth="1"/>
+    <col min="4" max="4" width="15.28515625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="86.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:7" ht="18" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>4</v>
       </c>
       <c r="B1" s="6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C1" s="6" t="s">
         <v>0</v>
@@ -1574,192 +1601,230 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="15" thickTop="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C2">
         <v>4</v>
       </c>
       <c r="D2">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>6</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>0.5</v>
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
       <c r="F4" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
+      <c r="B5" t="s">
+        <v>33</v>
+      </c>
       <c r="C5">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
+      <c r="E5" t="s">
+        <v>38</v>
+      </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C6"/>
-      <c r="D6"/>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C7"/>
-      <c r="D7"/>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>39</v>
+      </c>
+      <c r="B6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" t="s">
+        <v>34</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C8"/>
       <c r="D8"/>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9"/>
       <c r="D9"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C10"/>
       <c r="D10"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C11"/>
       <c r="D11"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C12"/>
       <c r="D12"/>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C13"/>
       <c r="D13"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C14"/>
       <c r="D14"/>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C15"/>
       <c r="D15"/>
       <c r="F15" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C16"/>
       <c r="D16"/>
       <c r="F16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C17"/>
       <c r="D17"/>
       <c r="F17" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B24" s="11"/>
       <c r="C24" s="12"/>
       <c r="D24" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>6.5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B25" s="11"/>
       <c r="C25" s="12"/>
       <c r="D25" s="5">
         <f ca="1">SUMIF(Tabelle2[Status], "Done", D2:D7)</f>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B26" s="12"/>
       <c r="C26" s="12"/>
@@ -1768,122 +1833,122 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B27" s="12"/>
       <c r="C27" s="12"/>
       <c r="D27" s="10">
         <f>SUM(Tabelle2[Story Points])</f>
-        <v>8.5</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C33" s="3"/>
       <c r="D33" s="3"/>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C34" s="3"/>
       <c r="D34" s="3"/>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C35" s="3"/>
       <c r="D35" s="3"/>
     </row>
-    <row r="36" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C36" s="3"/>
       <c r="D36" s="3"/>
     </row>
-    <row r="37" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C37" s="3"/>
       <c r="D37" s="3"/>
     </row>
-    <row r="38" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C38" s="3"/>
       <c r="D38" s="3"/>
     </row>
-    <row r="39" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C39" s="3"/>
       <c r="D39" s="3"/>
     </row>
-    <row r="40" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C40" s="3"/>
       <c r="D40" s="3"/>
     </row>
-    <row r="41" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
     </row>
-    <row r="42" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C42" s="3"/>
       <c r="D42" s="3"/>
     </row>
-    <row r="43" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C43" s="3"/>
       <c r="D43" s="3"/>
     </row>
-    <row r="44" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C44" s="3"/>
       <c r="D44" s="3"/>
     </row>
-    <row r="45" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C45" s="3"/>
       <c r="D45" s="3"/>
     </row>
-    <row r="46" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C46" s="3"/>
       <c r="D46" s="3"/>
     </row>
-    <row r="47" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C47" s="3"/>
       <c r="D47" s="3"/>
     </row>
-    <row r="48" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C48" s="3"/>
       <c r="D48" s="3"/>
     </row>
-    <row r="49" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C49" s="3"/>
       <c r="D49" s="3"/>
     </row>
-    <row r="50" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C50" s="3"/>
       <c r="D50" s="3"/>
     </row>
-    <row r="51" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C51" s="3"/>
       <c r="D51" s="3"/>
     </row>
-    <row r="52" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C52" s="3"/>
       <c r="D52" s="3"/>
     </row>
-    <row r="53" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C53" s="3"/>
       <c r="D53" s="3"/>
     </row>
-    <row r="54" spans="3:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:4" x14ac:dyDescent="0.25">
       <c r="C54" s="2"/>
       <c r="D54" s="2"/>
     </row>
@@ -1911,24 +1976,24 @@
       <selection activeCell="B35" sqref="B35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11" customWidth="1"/>
-    <col min="2" max="2" width="51.77734375" customWidth="1"/>
-    <col min="3" max="3" width="35.88671875" customWidth="1"/>
-    <col min="4" max="4" width="16.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.7109375" customWidth="1"/>
+    <col min="3" max="3" width="35.85546875" customWidth="1"/>
+    <col min="4" max="4" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" s="13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B1" s="13"/>
       <c r="C1" s="13"/>
       <c r="D1" s="13"/>
       <c r="E1" s="13"/>
     </row>
-    <row r="3" spans="1:5" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
         <v>4</v>
       </c>
@@ -1936,61 +2001,61 @@
         <v>1</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
         <v>26</v>
       </c>
-      <c r="C4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D4" t="s">
-        <v>12</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C7" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C8" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B20" s="12"/>
       <c r="C20" s="7">
@@ -1998,9 +2063,9 @@
       </c>
       <c r="D20" s="7"/>
     </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B21" s="12"/>
       <c r="C21" s="8">
@@ -2008,9 +2073,9 @@
       </c>
       <c r="D21" s="8"/>
     </row>
-    <row r="22" spans="1:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B22" s="12"/>
       <c r="C22" s="9">
@@ -2019,7 +2084,7 @@
       </c>
       <c r="D22" s="9"/>
     </row>
-    <row r="23" spans="1:4" ht="15" thickTop="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="1:4" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A20:B20"/>
@@ -2037,11 +2102,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -2055,11 +2120,11 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>

--- a/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110.xlsx
+++ b/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110.xlsx
@@ -13,7 +13,7 @@
     <sheet name="Sprintbacklog 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
-  <oleSize ref="A1"/>
+  <oleSize ref="A1:P34"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="46">
   <si>
     <t>Priorisierung</t>
   </si>
@@ -136,22 +136,31 @@
     <t>Als User möchte ich mindestens 5 Restaurants pro Küche haben.</t>
   </si>
   <si>
-    <t>Als User möchte ich Informationen über ein Restarant bekommen.</t>
-  </si>
-  <si>
     <t>Als User möchte ich die Informationen über eine Datenbank bekommen.</t>
   </si>
   <si>
     <t>US 5</t>
   </si>
   <si>
-    <t>Als User kann man eine Bewertung und ein Kommentar abgeben.</t>
-  </si>
-  <si>
     <t>US 6</t>
   </si>
   <si>
-    <t>Als User kann man einen neuen Account erstellen.</t>
+    <t>Als User möchte ich Informationen über ein Restaurant bekommen.</t>
+  </si>
+  <si>
+    <t>Als User kann man eine Sternbewertung abgeben.</t>
+  </si>
+  <si>
+    <t>Als User kann man einen Kommentar abgeben.</t>
+  </si>
+  <si>
+    <t>Bei der Priorisierung ist 4 das höchste und 1 das tiefste</t>
+  </si>
+  <si>
+    <t>US 7</t>
+  </si>
+  <si>
+    <t>Als User kann man für ein spezifisches Restaurant suchen.</t>
   </si>
 </sst>
 </file>
@@ -273,7 +282,7 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -296,6 +305,9 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="6">
     <cellStyle name="20 % - Akzent1" xfId="5" builtinId="30"/>
@@ -308,15 +320,15 @@
   <dxfs count="2">
     <dxf>
       <border outline="0">
-        <bottom style="double">
-          <color theme="4"/>
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="thick">
-          <color theme="4" tint="0.499984740745262"/>
+        <bottom style="double">
+          <color theme="4"/>
         </bottom>
       </border>
     </dxf>
@@ -509,7 +521,7 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>5</c:v>
+                  <c:v>7</c:v>
                 </c:pt>
                 <c:pt idx="1">
                   <c:v>0</c:v>
@@ -518,7 +530,7 @@
                   <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1286,7 +1298,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G18" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="Überschrift 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G18" totalsRowShown="0" headerRowBorderDxfId="0" tableBorderDxfId="1" headerRowCellStyle="Überschrift 2">
   <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
@@ -1567,7 +1579,7 @@
   <dimension ref="A1:G54"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1620,9 +1632,6 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
@@ -1643,9 +1652,6 @@
       <c r="F3" t="s">
         <v>11</v>
       </c>
-      <c r="G3">
-        <v>1</v>
-      </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
@@ -1655,19 +1661,16 @@
         <v>33</v>
       </c>
       <c r="C4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4">
         <v>2</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F4" t="s">
         <v>11</v>
-      </c>
-      <c r="G4">
-        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
@@ -1684,18 +1687,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F5" t="s">
         <v>11</v>
       </c>
-      <c r="G5">
-        <v>2</v>
-      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" t="s">
         <v>34</v>
@@ -1707,12 +1707,15 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>40</v>
+        <v>42</v>
+      </c>
+      <c r="F6" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B7" t="s">
         <v>34</v>
@@ -1724,12 +1727,28 @@
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>42</v>
+        <v>41</v>
+      </c>
+      <c r="F7" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="C8"/>
-      <c r="D8"/>
+      <c r="A8" t="s">
+        <v>44</v>
+      </c>
+      <c r="B8" t="s">
+        <v>34</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C9"/>
@@ -1769,38 +1788,45 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C17"/>
       <c r="D17"/>
       <c r="F17" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19" s="14"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="14"/>
+      <c r="F19" s="14"/>
+      <c r="G19" s="14"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
       <c r="D20" s="3"/>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C21" s="3"/>
       <c r="D21" s="3"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C22" s="3"/>
       <c r="D22" s="3"/>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C23" s="3"/>
       <c r="D23" s="3"/>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="11" t="s">
         <v>29</v>
       </c>
@@ -1808,10 +1834,10 @@
       <c r="C24" s="12"/>
       <c r="D24" s="10">
         <f ca="1">SUMIF(Tabelle2[Status], "Open", D2:D7)</f>
-        <v>5</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="11" t="s">
         <v>30</v>
       </c>
@@ -1822,7 +1848,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="12" t="s">
         <v>17</v>
       </c>
@@ -1833,7 +1859,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="12" t="s">
         <v>16</v>
       </c>
@@ -1841,26 +1867,26 @@
       <c r="C27" s="12"/>
       <c r="D27" s="10">
         <f>SUM(Tabelle2[Story Points])</f>
-        <v>7</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C29" s="3"/>
       <c r="D29" s="3"/>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C30" s="3"/>
       <c r="D30" s="3"/>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C31" s="3"/>
       <c r="D31" s="3"/>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C32" s="3"/>
       <c r="D32" s="3"/>
     </row>
@@ -1953,11 +1979,12 @@
       <c r="D54" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <mergeCells count="5">
     <mergeCell ref="A24:C24"/>
     <mergeCell ref="A25:C25"/>
     <mergeCell ref="A27:C27"/>
     <mergeCell ref="A26:C26"/>
+    <mergeCell ref="A19:G19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1973,7 +2000,7 @@
   <dimension ref="A1:E23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B35" sqref="B35"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110.xlsx
+++ b/Restaurants_Vallah_SJ/Documentation/220_Scrum Backlog.110.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="153222"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28620" windowHeight="10995"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="18465" windowHeight="5370"/>
   </bookViews>
   <sheets>
     <sheet name="Produktbacklog" sheetId="1" r:id="rId1"/>
@@ -302,10 +302,10 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="5" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" xfId="4" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -320,15 +320,15 @@
   <dxfs count="2">
     <dxf>
       <border outline="0">
-        <bottom style="thick">
-          <color theme="4" tint="0.499984740745262"/>
+        <bottom style="double">
+          <color theme="4"/>
         </bottom>
       </border>
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="double">
-          <color theme="4"/>
+        <bottom style="thick">
+          <color theme="4" tint="0.499984740745262"/>
         </bottom>
       </border>
     </dxf>
@@ -1298,7 +1298,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G18" totalsRowShown="0" headerRowBorderDxfId="0" tableBorderDxfId="1" headerRowCellStyle="Überschrift 2">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Tabelle2" displayName="Tabelle2" ref="A1:G18" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="0" headerRowCellStyle="Überschrift 2">
   <autoFilter ref="A1:G18"/>
   <tableColumns count="7">
     <tableColumn id="1" name="ID"/>
@@ -1578,7 +1578,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
       <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
@@ -1800,15 +1800,15 @@
       <c r="D18" s="3"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" s="14" t="s">
+      <c r="A19" s="13" t="s">
         <v>43</v>
       </c>
-      <c r="B19" s="14"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="14"/>
-      <c r="E19" s="14"/>
-      <c r="F19" s="14"/>
-      <c r="G19" s="14"/>
+      <c r="B19" s="13"/>
+      <c r="C19" s="13"/>
+      <c r="D19" s="13"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
+      <c r="G19" s="13"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="C20" s="3"/>
@@ -2012,13 +2012,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="14" t="s">
         <v>22</v>
       </c>
-      <c r="B1" s="13"/>
-      <c r="C1" s="13"/>
-      <c r="D1" s="13"/>
-      <c r="E1" s="13"/>
+      <c r="B1" s="14"/>
+      <c r="C1" s="14"/>
+      <c r="D1" s="14"/>
+      <c r="E1" s="14"/>
     </row>
     <row r="3" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4" t="s">
